--- a/43. The 19th Hole_Regression_Analysis_in_Excel.xlsx
+++ b/43. The 19th Hole_Regression_Analysis_in_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EE4AB-917C-4092-BB53-101CB8CE2065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE783D-7871-44BD-91CA-4E89ED1A6FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F070DFEF-0534-40E2-8EEF-8B5273E13F30}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Month</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Average:</t>
-  </si>
-  <si>
-    <t>Model the Business:</t>
   </si>
   <si>
     <t>Unit Cost:</t>
@@ -161,6 +158,24 @@
   <si>
     <t>Unit Cost</t>
   </si>
+  <si>
+    <t>Model the Business (using POWER model):</t>
+  </si>
+  <si>
+    <t>Model the Business (using EXPONENTIAL model):</t>
+  </si>
+  <si>
+    <t>Sales Price:</t>
+  </si>
+  <si>
+    <t>Demand:</t>
+  </si>
+  <si>
+    <t>← from exponential model</t>
+  </si>
+  <si>
+    <t>Price:</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -449,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -488,18 +509,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2354,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC005C92-457F-4DAA-AA31-B6991E620E41}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3010,7 +3089,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L32" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
@@ -3021,13 +3100,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>27</v>
+      <c r="H33" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="K33" s="30">
         <f>B42</f>
@@ -3057,13 +3136,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="28">
         <v>250</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="30">
@@ -3077,7 +3156,7 @@
         <v>260</v>
       </c>
       <c r="L34" s="2">
-        <f t="dataTable" ref="L34:R61" dt2D="1" dtr="1" r1="B34" r2="B35" ca="1"/>
+        <f t="dataTable" ref="L34:R61" dt2D="1" dtr="1" r1="B34" r2="B35"/>
         <v>144859.72842847556</v>
       </c>
       <c r="M34" s="2">
@@ -3101,19 +3180,19 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="28">
         <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2">
         <v>240</v>
       </c>
       <c r="H35" s="2">
-        <f t="dataTable" ref="H35:H51" dt2D="0" dtr="0" r1="B35"/>
+        <f t="dataTable" ref="H35:H51" dt2D="0" dtr="0" r1="B35" ca="1"/>
         <v>-168761.65099276789</v>
       </c>
       <c r="J35" s="33"/>
@@ -3144,14 +3223,14 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="27">
         <f>G6*(B35^G7)</f>
         <v>144.85972842847548</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B36)</f>
@@ -3191,7 +3270,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="27">
         <f>B36*100</f>
@@ -3301,7 +3380,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="27">
         <f>B37*B34</f>
@@ -3345,7 +3424,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <f>B37*B35</f>
@@ -3389,7 +3468,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="27">
         <f>B41-B40</f>
@@ -3629,7 +3708,7 @@
         <v>-35917.782881808933</v>
       </c>
     </row>
-    <row r="49" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G49" s="2">
         <v>520</v>
       </c>
@@ -3662,7 +3741,7 @@
         <v>33509.971547388006</v>
       </c>
     </row>
-    <row r="50" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G50" s="2">
         <v>540</v>
       </c>
@@ -3695,7 +3774,7 @@
         <v>94019.396162515972</v>
       </c>
     </row>
-    <row r="51" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G51" s="2">
         <v>560</v>
       </c>
@@ -3728,7 +3807,7 @@
         <v>146883.912852393</v>
       </c>
     </row>
-    <row r="52" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K52" s="2">
         <v>620</v>
       </c>
@@ -3754,7 +3833,7 @@
         <v>193166.36665411969</v>
       </c>
     </row>
-    <row r="53" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K53" s="2">
         <v>640</v>
       </c>
@@ -3780,7 +3859,7 @@
         <v>233758.7809159914</v>
       </c>
     </row>
-    <row r="54" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K54" s="2">
         <v>660</v>
       </c>
@@ -3806,7 +3885,7 @@
         <v>269413.69654420274</v>
       </c>
     </row>
-    <row r="55" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K55" s="2">
         <v>680</v>
       </c>
@@ -3832,7 +3911,7 @@
         <v>300769.06205606414</v>
       </c>
     </row>
-    <row r="56" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K56" s="2">
         <v>700</v>
       </c>
@@ -3858,7 +3937,7 @@
         <v>328368.14027179778</v>
       </c>
     </row>
-    <row r="57" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K57" s="2">
         <v>720</v>
       </c>
@@ -3884,7 +3963,7 @@
         <v>352675.53416417772</v>
       </c>
     </row>
-    <row r="58" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K58" s="2">
         <v>740</v>
       </c>
@@ -3910,7 +3989,7 @@
         <v>374090.16824700404</v>
       </c>
     </row>
-    <row r="59" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K59" s="2">
         <v>760</v>
       </c>
@@ -3936,7 +4015,7 @@
         <v>392955.8651125934</v>
       </c>
     </row>
-    <row r="60" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K60" s="2">
         <v>780</v>
       </c>
@@ -3962,7 +4041,7 @@
         <v>409570.00997025403</v>
       </c>
     </row>
-    <row r="61" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K61" s="2">
         <v>800</v>
       </c>
@@ -3986,6 +4065,533 @@
       </c>
       <c r="R61" s="2">
         <v>424190.68567694083</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="36">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="36">
+        <v>260</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="35">
+        <f>G10*(EXP(G11*B65))</f>
+        <v>127.13880676829721</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38">
+        <f>B71</f>
+        <v>127138.80676829722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="27">
+        <f>B66*100</f>
+        <v>12713.880676829722</v>
+      </c>
+      <c r="F67" s="37">
+        <v>250</v>
+      </c>
+      <c r="G67" s="37">
+        <f t="dataTable" ref="G67:G122" dt2D="0" dtr="0" r1="B65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="37">
+        <v>260</v>
+      </c>
+      <c r="G68" s="37">
+        <v>127138.80676829722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="27">
+        <f>B64*B67</f>
+        <v>3178470.1692074304</v>
+      </c>
+      <c r="F69" s="37">
+        <v>270</v>
+      </c>
+      <c r="G69" s="37">
+        <v>241876.34798782971</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="27">
+        <f>B65*B67</f>
+        <v>3305608.9759757277</v>
+      </c>
+      <c r="F70" s="37">
+        <v>280</v>
+      </c>
+      <c r="G70" s="37">
+        <v>345119.84894519672</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="27">
+        <f>B70-B69</f>
+        <v>127138.80676829722</v>
+      </c>
+      <c r="F71" s="37">
+        <v>290</v>
+      </c>
+      <c r="G71" s="37">
+        <v>437717.54039455019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="37">
+        <v>300</v>
+      </c>
+      <c r="G72" s="37">
+        <v>520462.25505421963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="37">
+        <v>310</v>
+      </c>
+      <c r="G73" s="37">
+        <v>594094.81361948326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="37">
+        <v>320</v>
+      </c>
+      <c r="G74" s="37">
+        <v>659307.21226780722</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="37">
+        <v>330</v>
+      </c>
+      <c r="G75" s="37">
+        <v>716745.62296534376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="37">
+        <v>340</v>
+      </c>
+      <c r="G76" s="37">
+        <v>767013.21725257114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="37">
+        <v>350</v>
+      </c>
+      <c r="G77" s="37">
+        <v>810672.82359067164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="37">
+        <v>360</v>
+      </c>
+      <c r="G78" s="37">
+        <v>848249.42778677586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="37">
+        <v>370</v>
+      </c>
+      <c r="G79" s="37">
+        <v>880232.5254836448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="37">
+        <v>380</v>
+      </c>
+      <c r="G80" s="37">
+        <v>907078.33519616933</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="37">
+        <v>390</v>
+      </c>
+      <c r="G81" s="37">
+        <v>929211.8799015421</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="37">
+        <v>400</v>
+      </c>
+      <c r="G82" s="37">
+        <v>947028.94474068307</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="37">
+        <v>410</v>
+      </c>
+      <c r="G83" s="37">
+        <v>960897.91796394461</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="37">
+        <v>420</v>
+      </c>
+      <c r="G84" s="37">
+        <v>971161.52185307606</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="37">
+        <v>430</v>
+      </c>
+      <c r="G85" s="37">
+        <v>978138.43997245352</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="37">
+        <v>440</v>
+      </c>
+      <c r="G86" s="37">
+        <v>982124.84674463491</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="37">
+        <v>450</v>
+      </c>
+      <c r="G87" s="37">
+        <v>983395.84500710666</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="37">
+        <v>460</v>
+      </c>
+      <c r="G88" s="37">
+        <v>982206.81688762805</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="37">
+        <v>470</v>
+      </c>
+      <c r="G89" s="37">
+        <v>978794.6930338731</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="37">
+        <v>480</v>
+      </c>
+      <c r="G90" s="37">
+        <v>973379.144948008</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="37">
+        <v>490</v>
+      </c>
+      <c r="G91" s="37">
+        <v>966163.70490771206</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="37">
+        <v>500</v>
+      </c>
+      <c r="G92" s="37">
+        <v>957336.81770087557</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="37">
+        <v>510</v>
+      </c>
+      <c r="G93" s="37">
+        <v>947072.82816114672</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="37">
+        <v>520</v>
+      </c>
+      <c r="G94" s="37">
+        <v>935532.90826476016</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="37">
+        <v>530</v>
+      </c>
+      <c r="G95" s="37">
+        <v>922865.92733498837</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="37">
+        <v>540</v>
+      </c>
+      <c r="G96" s="37">
+        <v>909209.26869839907</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="37">
+        <v>550</v>
+      </c>
+      <c r="G97" s="37">
+        <v>894689.5959462343</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="37">
+        <v>560</v>
+      </c>
+      <c r="G98" s="37">
+        <v>879423.57177400333</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="37">
+        <v>570</v>
+      </c>
+      <c r="G99" s="37">
+        <v>863518.53220226837</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="37">
+        <v>580</v>
+      </c>
+      <c r="G100" s="37">
+        <v>847073.11882097961</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="37">
+        <v>590</v>
+      </c>
+      <c r="G101" s="37">
+        <v>830177.87154810841</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="37">
+        <v>600</v>
+      </c>
+      <c r="G102" s="37">
+        <v>812915.78425022727</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="37">
+        <v>610</v>
+      </c>
+      <c r="G103" s="37">
+        <v>795362.82543760119</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="37">
+        <v>620</v>
+      </c>
+      <c r="G104" s="37">
+        <v>777588.42611888994</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="37">
+        <v>630</v>
+      </c>
+      <c r="G105" s="37">
+        <v>759655.93678023096</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="37">
+        <v>640</v>
+      </c>
+      <c r="G106" s="37">
+        <v>741623.05533995724</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="37">
+        <v>650</v>
+      </c>
+      <c r="G107" s="37">
+        <v>723542.22782306536</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="37">
+        <v>660</v>
+      </c>
+      <c r="G108" s="37">
+        <v>705461.02339845127</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="37">
+        <v>670</v>
+      </c>
+      <c r="G109" s="37">
+        <v>687422.48532657884</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="37">
+        <v>680</v>
+      </c>
+      <c r="G110" s="37">
+        <v>669465.45927524404</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="37">
+        <v>690</v>
+      </c>
+      <c r="G111" s="37">
+        <v>651624.90037622885</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="37">
+        <v>700</v>
+      </c>
+      <c r="G112" s="37">
+        <v>633932.16031556111</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="37">
+        <v>710</v>
+      </c>
+      <c r="G113" s="37">
+        <v>616415.25567456463</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="37">
+        <v>720</v>
+      </c>
+      <c r="G114" s="37">
+        <v>599099.11866766331</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="37">
+        <v>730</v>
+      </c>
+      <c r="G115" s="37">
+        <v>582005.83135570353</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="37">
+        <v>740</v>
+      </c>
+      <c r="G116" s="37">
+        <v>565154.84435022343</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="37">
+        <v>750</v>
+      </c>
+      <c r="G117" s="37">
+        <v>548563.18096434034</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="37">
+        <v>760</v>
+      </c>
+      <c r="G118" s="37">
+        <v>532245.62770961039</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="37">
+        <v>770</v>
+      </c>
+      <c r="G119" s="37">
+        <v>516214.91198510129</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="37">
+        <v>780</v>
+      </c>
+      <c r="G120" s="37">
+        <v>500481.86775485688</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="37">
+        <v>790</v>
+      </c>
+      <c r="G121" s="37">
+        <v>485055.58996273065</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F122" s="37">
+        <v>800</v>
+      </c>
+      <c r="G122" s="37">
+        <v>469943.57838908606</v>
       </c>
     </row>
   </sheetData>
@@ -3995,23 +4601,28 @@
     <mergeCell ref="J34:J51"/>
   </mergeCells>
   <conditionalFormatting sqref="H35:H51">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>MAX($H$35:$H$51)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M61">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>MAX($M$34:$M$61)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N61">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>MAX($N$34:$N$61)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O61">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>MAX($O$34:$O$61)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:G122">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>MAX($O$34:$O$61)</formula>
+      <formula>MAX($G$67:$G$122)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4020,7 +4631,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{3C195466-0840-472A-9DCF-FFD6CE2122C6}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{3C195466-0840-472A-9DCF-FFD6CE2122C6}">
             <xm:f>NOT(ISERROR(SEARCH(MAX($L$34:$L$51),L34)))</xm:f>
             <xm:f>MAX($L$34:$L$51)</xm:f>
             <x14:dxf>
